--- a/sampledata/sample_differentiated_cells.xlsx
+++ b/sampledata/sample_differentiated_cells.xlsx
@@ -40,7 +40,7 @@
     <t>DC_Alternative_ID</t>
   </si>
   <si>
-    <t>Precursor_Primary_Cell</t>
+    <t>Precursor_IPSC</t>
   </si>
   <si>
     <t>DC_Differentiation_Protocol</t>
@@ -91,7 +91,7 @@
     <t>Most Recent Update</t>
   </si>
   <si>
-    <t>HMSL70001</t>
+    <t>HMSL75001</t>
   </si>
   <si>
     <t>dc-name-1</t>
@@ -106,7 +106,7 @@
     <t>DC_ALT_ID-1,DC_ALT_ID-1A</t>
   </si>
   <si>
-    <t>HMSL60011-1</t>
+    <t>HMSL70001-1</t>
   </si>
   <si>
     <t>Differentiation protocol 1</t>
@@ -145,7 +145,7 @@
     <t>2017-08-24</t>
   </si>
   <si>
-    <t>HMSL70002</t>
+    <t>HMSL75002</t>
   </si>
   <si>
     <t>dc-name-2</t>
@@ -160,7 +160,7 @@
     <t>DC_ALT_ID-2</t>
   </si>
   <si>
-    <t>HMSL60012-1</t>
+    <t>HMSL70001-2</t>
   </si>
   <si>
     <t>Differentiation protocol 2</t>
@@ -196,7 +196,7 @@
     <t>DC_Genetic_Modification 2</t>
   </si>
   <si>
-    <t>HMSL70003</t>
+    <t>HMSL75003</t>
   </si>
   <si>
     <t>dc-name-3</t>
@@ -211,7 +211,7 @@
     <t>DC_ALT_ID-3</t>
   </si>
   <si>
-    <t>HMSL60013-1</t>
+    <t>HMSL70002-1</t>
   </si>
   <si>
     <t>Differentiation protocol 3</t>
@@ -241,7 +241,7 @@
     <t>DC_Genetic_Modification 3</t>
   </si>
   <si>
-    <t>HMSL70004</t>
+    <t>HMSL75004</t>
   </si>
   <si>
     <t>dc-name-4</t>
@@ -256,7 +256,7 @@
     <t>DC_ALT_ID-4</t>
   </si>
   <si>
-    <t>HMSL60014-1</t>
+    <t>HMSL70003-1</t>
   </si>
   <si>
     <t>Differentiation protocol 4</t>
@@ -286,7 +286,7 @@
     <t>DC_Genetic_Modification 4</t>
   </si>
   <si>
-    <t>HMSL70005</t>
+    <t>HMSL75005</t>
   </si>
   <si>
     <t>dc-name-5</t>
@@ -301,7 +301,7 @@
     <t>DC_ALT_ID-5</t>
   </si>
   <si>
-    <t>HMSL60015-1</t>
+    <t>HMSL70004-1</t>
   </si>
   <si>
     <t>Differentiation protocol 5</t>
@@ -331,7 +331,7 @@
     <t>DC_Genetic_Modification 5</t>
   </si>
   <si>
-    <t>HMSL70006</t>
+    <t>HMSL75006</t>
   </si>
   <si>
     <t>dc-name-6</t>
@@ -346,7 +346,7 @@
     <t>DC_ALT_ID-6</t>
   </si>
   <si>
-    <t>HMSL60016-1</t>
+    <t>HMSL70005-1</t>
   </si>
   <si>
     <t>Differentiation protocol 6</t>
@@ -376,7 +376,7 @@
     <t>DC_Genetic_Modification 6</t>
   </si>
   <si>
-    <t>HMSL70007</t>
+    <t>HMSL75007</t>
   </si>
   <si>
     <t>dc-name-7</t>
@@ -391,7 +391,7 @@
     <t>DC_ALT_ID-7</t>
   </si>
   <si>
-    <t>HMSL60017-1</t>
+    <t>HMSL70006-1</t>
   </si>
   <si>
     <t>Differentiation protocol 7</t>
@@ -421,7 +421,7 @@
     <t>DC_Genetic_Modification 7</t>
   </si>
   <si>
-    <t>HMSL70008</t>
+    <t>HMSL75008</t>
   </si>
   <si>
     <t>dc-name-8</t>
@@ -463,7 +463,7 @@
     <t>DC_Genetic_Modification 8</t>
   </si>
   <si>
-    <t>HMSL70009</t>
+    <t>HMSL75009</t>
   </si>
   <si>
     <t>dc-name-9</t>
@@ -676,22 +676,22 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="15" min="7" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="997" min="18" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="7" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="997" min="18" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/sampledata/sample_differentiated_cells.xlsx
+++ b/sampledata/sample_differentiated_cells.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
   <si>
     <t>Facility ID</t>
   </si>
@@ -91,6 +91,9 @@
     <t>Most Recent Update</t>
   </si>
   <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>HMSL75001</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>2017-08-24</t>
   </si>
   <si>
+    <t>DC test comment 1</t>
+  </si>
+  <si>
     <t>HMSL75002</t>
   </si>
   <si>
@@ -196,6 +202,9 @@
     <t>DC_Genetic_Modification 2</t>
   </si>
   <si>
+    <t>DC test comment 2</t>
+  </si>
+  <si>
     <t>HMSL75003</t>
   </si>
   <si>
@@ -241,6 +250,9 @@
     <t>DC_Genetic_Modification 3</t>
   </si>
   <si>
+    <t>DC test comment 3</t>
+  </si>
+  <si>
     <t>HMSL75004</t>
   </si>
   <si>
@@ -286,6 +298,9 @@
     <t>DC_Genetic_Modification 4</t>
   </si>
   <si>
+    <t>DC test comment 4</t>
+  </si>
+  <si>
     <t>HMSL75005</t>
   </si>
   <si>
@@ -331,6 +346,9 @@
     <t>DC_Genetic_Modification 5</t>
   </si>
   <si>
+    <t>DC test comment 5</t>
+  </si>
+  <si>
     <t>HMSL75006</t>
   </si>
   <si>
@@ -376,6 +394,9 @@
     <t>DC_Genetic_Modification 6</t>
   </si>
   <si>
+    <t>DC test comment 6</t>
+  </si>
+  <si>
     <t>HMSL75007</t>
   </si>
   <si>
@@ -421,6 +442,9 @@
     <t>DC_Genetic_Modification 7</t>
   </si>
   <si>
+    <t>DC test comment 7</t>
+  </si>
+  <si>
     <t>HMSL75008</t>
   </si>
   <si>
@@ -463,6 +487,9 @@
     <t>DC_Genetic_Modification 8</t>
   </si>
   <si>
+    <t>DC test comment 8</t>
+  </si>
+  <si>
     <t>HMSL75009</t>
   </si>
   <si>
@@ -503,6 +530,9 @@
   </si>
   <si>
     <t>DC_Genetic_Modification 9</t>
+  </si>
+  <si>
+    <t>DC test comment 9</t>
   </si>
 </sst>
 </file>
@@ -673,25 +703,25 @@
   </sheetPr>
   <dimension ref="A1:ALI11"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="W10" activeCellId="0" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="7" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="997" min="18" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="15" min="7" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="997" min="18" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,75 +1790,80 @@
       <c r="V2" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="W2" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="0"/>
+        <v>40</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
@@ -2806,72 +2841,74 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="S4" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="0"/>
+        <v>40</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>59</v>
+      </c>
       <c r="X4" s="0"/>
       <c r="Y4" s="0"/>
       <c r="Z4" s="0"/>
@@ -3849,72 +3886,74 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" s="0"/>
+        <v>40</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>75</v>
+      </c>
       <c r="X5" s="0"/>
       <c r="Y5" s="0"/>
       <c r="Z5" s="0"/>
@@ -4892,404 +4931,422 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
